--- a/biology/Virologie/Vittoria_Colizza/Vittoria_Colizza.xlsx
+++ b/biology/Virologie/Vittoria_Colizza/Vittoria_Colizza.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vittoria Colizza, née le 25 mai 1978 à Rome, est une scientifique italienne, directrice de recherches à l’Inserm et spécialiste en modélisation des maladies infectieuses. Elle mène notamment des recherches sur la modélisation de la pandémie de Covid-19[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vittoria Colizza, née le 25 mai 1978 à Rome, est une scientifique italienne, directrice de recherches à l’Inserm et spécialiste en modélisation des maladies infectieuses. Elle mène notamment des recherches sur la modélisation de la pandémie de Covid-19.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Vittoria Colizza fait des études de physique de 1996 à 2001, à l'université de Rome « La Sapienza » où elle obtient sa laurea[2], puis elle prépare un doctorat de physique statistique et biologique à l'École internationale supérieure d'études avancées de Trieste de 2001 à 2004[3],[4]. Elle réalise une recherche postdoctorale à l'université de l'Indiana à Bloomington de 2004 à 2006, sous la direction d'Alessandro Vespignani (en), grâce à une bourse du Conseil européen de la recherche[3],[5] puis est enseignante-chercheuse invitée de 2006 à 2007 dans cette même université[2].  
-À son retour en Europe, elle obtient un financement du Conseil européen de la recherche[3],[5] (ERC Starting Grant) qui lui permet de créer son laboratoire à l’Institut pour les échanges scientifiques de Turin (Italie), où elle fait des recherches sur la pandémie de Grippe A (H1N1) de 2009.  
-En 2011, elle s'installe en France et rejoint l'Inserm, où elle est nommée directrice de recherches en 2017. Elle fait partie de l’équipe Maladies transmissibles : Surveillance et modélisation de l'Institut Pierre-Louis d’épidémiologie et de santé publique (Inserm/Sorbonne-Université)[6]. Elle dirige l'EPIcx lab (Epidemics in complex environments)[7],[8]. 
-Vittoria Colizza et son équipe ont développé le premier modèle d’impact sur la COVID-19 en janvier 2020[9] qui estimait que le risque d'importation d'au moins un cas en Europe était élevé, c'est-à-dire supérieur à 80 % si 60 cas liés au voyage etaient exportés de Chine. Le Royaume-Uni, la France, l'Allemagne, l'Italie et l'Espagne étaient identifiés comme étant les pays européens à plus haut risque d'importation.
-Dans une autre étude publiée dans Plos Medicine en juillet 2020, Colizza et son équipe considèrent que la majorité des cas importés n'ont pas été détectés (6 sur 10)[10].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vittoria Colizza fait des études de physique de 1996 à 2001, à l'université de Rome « La Sapienza » où elle obtient sa laurea, puis elle prépare un doctorat de physique statistique et biologique à l'École internationale supérieure d'études avancées de Trieste de 2001 à 2004,. Elle réalise une recherche postdoctorale à l'université de l'Indiana à Bloomington de 2004 à 2006, sous la direction d'Alessandro Vespignani (en), grâce à une bourse du Conseil européen de la recherche, puis est enseignante-chercheuse invitée de 2006 à 2007 dans cette même université.  
+À son retour en Europe, elle obtient un financement du Conseil européen de la recherche, (ERC Starting Grant) qui lui permet de créer son laboratoire à l’Institut pour les échanges scientifiques de Turin (Italie), où elle fait des recherches sur la pandémie de Grippe A (H1N1) de 2009.  
+En 2011, elle s'installe en France et rejoint l'Inserm, où elle est nommée directrice de recherches en 2017. Elle fait partie de l’équipe Maladies transmissibles : Surveillance et modélisation de l'Institut Pierre-Louis d’épidémiologie et de santé publique (Inserm/Sorbonne-Université). Elle dirige l'EPIcx lab (Epidemics in complex environments),. 
+Vittoria Colizza et son équipe ont développé le premier modèle d’impact sur la COVID-19 en janvier 2020 qui estimait que le risque d'importation d'au moins un cas en Europe était élevé, c'est-à-dire supérieur à 80 % si 60 cas liés au voyage etaient exportés de Chine. Le Royaume-Uni, la France, l'Allemagne, l'Italie et l'Espagne étaient identifiés comme étant les pays européens à plus haut risque d'importation.
+Dans une autre étude publiée dans Plos Medicine en juillet 2020, Colizza et son équipe considèrent que la majorité des cas importés n'ont pas été détectés (6 sur 10).
 </t>
         </is>
       </c>
@@ -546,12 +560,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2012 : Prix Louis-Daniel Beauperthuy de l'académie des sciences[11]
-2013 : Prix du jeune scientifique en Socio-Econophysique 2013, décerné par l'Association allemande de physique[12].
-2017 : prix Erdős–Rényi (en) pour ses contributions à la modélisation, fondamentale et basée sur les données, des processus épidémiques en réseau[13],[14].
-2021 : "prix spécial de l'engagement" remis à l'occasion du prix Irène Joliot-Curie[15].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2012 : Prix Louis-Daniel Beauperthuy de l'académie des sciences
+2013 : Prix du jeune scientifique en Socio-Econophysique 2013, décerné par l'Association allemande de physique.
+2017 : prix Erdős–Rényi (en) pour ses contributions à la modélisation, fondamentale et basée sur les données, des processus épidémiques en réseau,.
+2021 : "prix spécial de l'engagement" remis à l'occasion du prix Irène Joliot-Curie.</t>
         </is>
       </c>
     </row>
@@ -579,9 +595,11 @@
           <t>Décoration</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 13 juillet 2023, Vittorie Colizza est nommée au grade de chevalier dans l'ordre national de la Légion d'honneur[16].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 13 juillet 2023, Vittorie Colizza est nommée au grade de chevalier dans l'ordre national de la Légion d'honneur.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Vittoria Colizza a publié ou co-publié plus d'une centaine d'articles scientifiques à fin 2020, dont : 
 Pullano, G., Di Domenico, L. et al. Underdetection of COVID-19 cases in France threatens epidemic control, Nature 590, 134–139 (2021)
